--- a/api 설계/Kmarket API 설계.xlsx
+++ b/api 설계/Kmarket API 설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjinwoo\Desktop\project\api 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128E971-5686-4F82-843E-6E0810BF00ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33907EC4-5D17-4003-9EA6-7A236790D749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,26 +67,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 로그인 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 목록 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터 메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작업자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,27 +83,319 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/kmarket/product/…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/kmarket/cs/…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/kmarket/admin/…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/kmarket/member/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/kmarket/member/join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반/판매자 회원 구분 페이지</t>
+    <t>일반/판매자 회원 구분 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 회원 이용약관 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 회원 이용약관 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 회원 이용약관 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 회원 이용약관 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 회원가입 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 회원가입 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/sign-up/general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/sign-up/seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/add/general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/add/seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 중복 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 존재 여부 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 코드 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 코드 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/findId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/findIdResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 결과 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/findPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/resetPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호 변경 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/sendMails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/checkCodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/checkEmails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/checkIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/members/checkMembers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 메인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/admin/products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/admin/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/admin/selectedProducts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 다중 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/admin/modifyProducts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 수정 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 뷰 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리스트 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/addCarts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/directOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 주문 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/orderPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오페이 직접 결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/orderApproval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오페이 직접 결제 완료 후 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/cartOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 장바구니 주문 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/cartOrderPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오페이 장바구니 결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/orderApprovalCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오페이 장바구니 결제 후 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/completeCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 결제 완료 홤면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접결제 완료 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kmarket/products/cart/quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 수량 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -533,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -542,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -550,81 +826,651 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -640,15 +1486,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097CC9FFAC65EFA45BEA04EBBB60CAD5B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b23439a91ba18143205c49e90ab13d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60114a07b5dc583519299b7a26e1c8b6">
     <xsd:element name="properties">
@@ -762,6 +1599,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE3480B-5504-4F1A-8E81-8AF0C8D9879C}">
   <ds:schemaRefs>
@@ -778,14 +1624,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305CDDD2-5EEF-4FF9-9584-902F68B12982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E38BF8-DA76-4FEC-BE1F-43A93506C983}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -799,4 +1637,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305CDDD2-5EEF-4FF9-9584-902F68B12982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>